--- a/ConsoleApplication1/graphics1.xlsx
+++ b/ConsoleApplication1/graphics1.xlsx
@@ -1,34 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\хуйня\LABA2\ConsoleApplication1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0311F2-601E-4684-9234-87693CC5FBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Insertionsort</t>
   </si>
@@ -50,15 +47,12 @@
   <si>
     <t>SortSorted</t>
   </si>
-  <si>
-    <t>Heapsort</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,8 +111,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -151,7 +155,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -160,6 +164,7 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -174,6 +179,7 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -260,7 +266,8 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5DD6-4B47-8D4C-85A8745E3BF2}"/>
             </c:ext>
@@ -352,7 +359,8 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5DD6-4B47-8D4C-85A8745E3BF2}"/>
             </c:ext>
@@ -444,7 +452,8 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5DD6-4B47-8D4C-85A8745E3BF2}"/>
             </c:ext>
@@ -458,9 +467,6 @@
               <c:f>Лист1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Heapsort</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -473,8 +479,21 @@
               </c:pt>
             </c:numLit>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-86E3-493A-BCC8-088A8D6199E1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="157155712"/>
         <c:axId val="157157248"/>
       </c:scatterChart>
@@ -483,6 +502,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -500,6 +520,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -543,6 +564,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -560,6 +582,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -608,7 +631,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -639,13 +666,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -681,8 +709,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -715,7 +753,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -724,6 +762,7 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -738,6 +777,7 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
@@ -818,7 +858,8 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-4622-464E-AA66-DAE1305DD05B}"/>
             </c:ext>
@@ -904,7 +945,8 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-4622-464E-AA66-DAE1305DD05B}"/>
             </c:ext>
@@ -990,13 +1032,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-4622-464E-AA66-DAE1305DD05B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="157688192"/>
         <c:axId val="157689728"/>
       </c:scatterChart>
@@ -1005,6 +1055,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1022,6 +1073,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1065,6 +1117,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1082,6 +1135,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1130,7 +1184,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1161,13 +1215,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1222,7 +1277,7 @@
         <xdr:cNvPr id="56" name="Диаграмма 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7063EFEA-8AE7-1CC7-5345-10AE6D3EAA20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7063EFEA-8AE7-1CC7-5345-10AE6D3EAA20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1258,7 +1313,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{439191B4-A58F-497F-B3AD-3B87B46C4742}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{439191B4-A58F-497F-B3AD-3B87B46C4742}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1570,21 +1625,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5546875" customWidth="1"/>
@@ -1598,7 +1653,7 @@
     <col min="10" max="10" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1611,11 +1666,8 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" ht="17.399999999999999">
+    <row r="2" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -1628,11 +1680,8 @@
       <c r="D2">
         <v>0.99463500000000005</v>
       </c>
-      <c r="E2">
-        <v>1.5484100000000001E-2</v>
-      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -1645,11 +1694,8 @@
       <c r="D3">
         <v>9.22377</v>
       </c>
-      <c r="E3">
-        <v>7.2955699999999998E-2</v>
-      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3000</v>
       </c>
@@ -1662,11 +1708,8 @@
       <c r="D4">
         <v>33.977499999999999</v>
       </c>
-      <c r="E4">
-        <v>0.17865</v>
-      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4000</v>
       </c>
@@ -1679,11 +1722,8 @@
       <c r="D5">
         <v>81.170900000000003</v>
       </c>
-      <c r="E5">
-        <v>0.338974</v>
-      </c>
     </row>
-    <row r="6" spans="1:5" ht="17.399999999999999">
+    <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5000</v>
       </c>
@@ -1696,35 +1736,32 @@
       <c r="D6">
         <v>178.29300000000001</v>
       </c>
-      <c r="E6">
-        <v>0.57543800000000001</v>
-      </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="17.399999999999999">
+    <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="17.399999999999999">
+    <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E13" s="1"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="17.399999999999999">
+    <row r="17" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="17.399999999999999">
+    <row r="18" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G18" s="1"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>6</v>
       </c>
@@ -1735,7 +1772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1000</v>
       </c>
@@ -1749,7 +1786,7 @@
         <v>5.1959999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2000</v>
       </c>
@@ -1763,7 +1800,7 @@
         <v>0.31069999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17.399999999999999">
+    <row r="26" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3000</v>
       </c>

--- a/ConsoleApplication1/graphics1.xlsx
+++ b/ConsoleApplication1/graphics1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\хуйня\LABA2\ConsoleApplication1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LABARATOR2\ConsoleApplication1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0311F2-601E-4684-9234-87693CC5FBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B05BC97-0FC7-4022-95F8-3F57302EF3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -249,19 +249,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.6032999999999999</c:v>
+                  <c:v>7.8782999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.129300000000001</c:v>
+                  <c:v>3.1587700000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.040100000000002</c:v>
+                  <c:v>6.9655099999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>135.58500000000001</c:v>
+                  <c:v>0.128832</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>298.45800000000003</c:v>
+                  <c:v>0.21065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -342,19 +342,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.07379E-2</c:v>
+                  <c:v>2.0149999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.213259</c:v>
+                  <c:v>4.3310000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.48226200000000002</c:v>
+                  <c:v>7.7550000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99904800000000005</c:v>
+                  <c:v>8.9349999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9599</c:v>
+                  <c:v>1.0937E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -435,19 +435,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.99463500000000005</c:v>
+                  <c:v>3.4964000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.22377</c:v>
+                  <c:v>1.4453199999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.977499999999999</c:v>
+                  <c:v>3.3765099999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81.170900000000003</c:v>
+                  <c:v>5.1697600000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>178.29300000000001</c:v>
+                  <c:v>7.9180299999999995E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -780,7 +780,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Лист1!$C$23</c:f>
@@ -801,21 +801,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>Лист1!$A$2:$A$6</c:f>
@@ -842,18 +827,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$24:$C$26</c:f>
+              <c:f>Лист1!$C$24:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.3217299999999998E-2</c:v>
+                  <c:v>1.2592E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20577100000000001</c:v>
+                  <c:v>2.4724999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.54258300000000004</c:v>
+                  <c:v>4.2044999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2592000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2436000000000002E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -861,94 +852,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4622-464E-AA66-DAE1305DD05B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SortSorted</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$B$24:$B$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3.4929399999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.168045</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.51349100000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-4622-464E-AA66-DAE1305DD05B}"/>
+              <c16:uniqueId val="{00000000-B491-4DA4-AD67-8CCC68AB3F59}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1016,18 +920,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$D$24:$D$26</c:f>
+              <c:f>Лист1!$D$24:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.1959999999999999E-2</c:v>
+                  <c:v>1.3795999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31069999999999998</c:v>
+                  <c:v>3.2988000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81625099999999995</c:v>
+                  <c:v>4.7215E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2227999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2814999999999998E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1035,7 +945,76 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-4622-464E-AA66-DAE1305DD05B}"/>
+              <c16:uniqueId val="{00000003-B491-4DA4-AD67-8CCC68AB3F59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SortSorted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$24:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0326000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4301000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8281000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5425999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6356000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B491-4DA4-AD67-8CCC68AB3F59}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1049,6 +1028,132 @@
         </c:dLbls>
         <c:axId val="157688192"/>
         <c:axId val="157689728"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>SortSorted</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$2:$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Лист1!$B$24:$B$26,Лист1!$B$24:$B$28)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>1.0326000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.4301000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.8281000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.0326000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.4301000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2.8281000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3.5425999999999999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>4.6356000000000001E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-4622-464E-AA66-DAE1305DD05B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="157688192"/>
@@ -1379,7 +1484,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1431,7 +1536,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1633,10 +1738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1672,13 +1777,13 @@
         <v>1000</v>
       </c>
       <c r="B2" s="1">
-        <v>1.6032999999999999</v>
+        <v>7.8782999999999995E-3</v>
       </c>
       <c r="C2" s="1">
-        <v>4.07379E-2</v>
+        <v>2.0149999999999999E-4</v>
       </c>
       <c r="D2">
-        <v>0.99463500000000005</v>
+        <v>3.4964000000000002E-3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1686,13 +1791,13 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>15.129300000000001</v>
+        <v>3.1587700000000003E-2</v>
       </c>
       <c r="C3">
-        <v>0.213259</v>
+        <v>4.3310000000000001E-4</v>
       </c>
       <c r="D3">
-        <v>9.22377</v>
+        <v>1.4453199999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1700,13 +1805,13 @@
         <v>3000</v>
       </c>
       <c r="B4">
-        <v>54.040100000000002</v>
+        <v>6.9655099999999998E-2</v>
       </c>
       <c r="C4">
-        <v>0.48226200000000002</v>
+        <v>7.7550000000000004E-4</v>
       </c>
       <c r="D4">
-        <v>33.977499999999999</v>
+        <v>3.3765099999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1714,13 +1819,13 @@
         <v>4000</v>
       </c>
       <c r="B5">
-        <v>135.58500000000001</v>
+        <v>0.128832</v>
       </c>
       <c r="C5">
-        <v>0.99904800000000005</v>
+        <v>8.9349999999999998E-4</v>
       </c>
       <c r="D5">
-        <v>81.170900000000003</v>
+        <v>5.1697600000000003E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -1728,13 +1833,13 @@
         <v>5000</v>
       </c>
       <c r="B6">
-        <v>298.45800000000003</v>
+        <v>0.21065</v>
       </c>
       <c r="C6" s="1">
-        <v>1.9599</v>
+        <v>1.0937E-3</v>
       </c>
       <c r="D6">
-        <v>178.29300000000001</v>
+        <v>7.9180299999999995E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1774,44 +1879,72 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="B24">
-        <v>3.4929399999999999E-2</v>
+        <v>1.0326000000000001E-3</v>
       </c>
       <c r="C24">
-        <v>3.3217299999999998E-2</v>
+        <v>1.2592E-3</v>
       </c>
       <c r="D24">
-        <v>5.1959999999999999E-2</v>
+        <v>1.3795999999999999E-3</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="B25">
-        <v>0.168045</v>
+        <v>2.4301000000000001E-3</v>
       </c>
       <c r="C25">
-        <v>0.20577100000000001</v>
+        <v>2.4724999999999999E-3</v>
       </c>
       <c r="D25">
-        <v>0.31069999999999998</v>
+        <v>3.2988000000000002E-3</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="B26">
-        <v>0.51349100000000003</v>
+        <v>2.8281000000000001E-3</v>
       </c>
       <c r="C26" s="1">
-        <v>0.54258300000000004</v>
+        <v>4.2044999999999999E-3</v>
       </c>
       <c r="D26">
-        <v>0.81625099999999995</v>
+        <v>4.7215E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>20000</v>
+      </c>
+      <c r="B27">
+        <v>3.5425999999999999E-3</v>
+      </c>
+      <c r="C27">
+        <v>5.2592000000000003E-3</v>
+      </c>
+      <c r="D27">
+        <v>7.2227999999999997E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>25000</v>
+      </c>
+      <c r="B28">
+        <v>4.6356000000000001E-3</v>
+      </c>
+      <c r="C28">
+        <v>7.2436000000000002E-3</v>
+      </c>
+      <c r="D28">
+        <v>9.2814999999999998E-3</v>
       </c>
     </row>
   </sheetData>

--- a/ConsoleApplication1/graphics1.xlsx
+++ b/ConsoleApplication1/graphics1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LABARATOR2\ConsoleApplication1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B05BC97-0FC7-4022-95F8-3F57302EF3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34161725-0127-4F4E-B385-FEE1B2F77DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1740,7 +1740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
